--- a/reverseprimer-v3_26.xlsx
+++ b/reverseprimer-v3_26.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_26" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2401-TACAGTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2401-GCTTGGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGGTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2402-TTGCATCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCATCACTGTCTCGTGGGCTCGG</t>
+    <t>R2402-AGAAGACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGACAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2403-GTAGGTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R2403-ACAGACGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGACGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2404-CGTCTACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCTACCTAGTCTCGTGGGCTCGG</t>
+    <t>R2404-GTGTGTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2405-AAGACGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACGAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2405-AGACTGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2406-CACTCACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTCACTTGGTCTCGTGGGCTCGG</t>
+    <t>R2406-TCTGTCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2407-ACTCGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGTCATGGTCTCGTGGGCTCGG</t>
+    <t>R2407-CGAACAAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAACAAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2408-GCTGTCACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGTCACTTGTCTCGTGGGCTCGG</t>
+    <t>R2408-ATCCATGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCATGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2409-ATCTGCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGCACATGTCTCGTGGGCTCGG</t>
+    <t>R2409-GAGTGAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGAAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2410-GTGTAGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGAACGGTCTCGTGGGCTCGG</t>
+    <t>R2410-ACCAGTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2411-TCAAGGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2411-TCCAGAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGAACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2412-TCTGTGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGTGTAGTCTCGTGGGCTCGG</t>
+    <t>R2412-TTCCTCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2413-GCAAGTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2413-CTTGACGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGACGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2414-AAGACCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACCATCAGTCTCGTGGGCTCGG</t>
+    <t>R2414-CGTCGTTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCGTTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2415-AGTAGCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCACACGTCTCGTGGGCTCGG</t>
+    <t>R2415-CTGACGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACGACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2416-GTACCACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCACTACGTCTCGTGGGCTCGG</t>
+    <t>R2416-GTTGGAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2417-TCATCGTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCGTCGTGTCTCGTGGGCTCGG</t>
+    <t>R2417-AACACTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2418-AGCAACTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAACTGGTGTCTCGTGGGCTCGG</t>
+    <t>R2418-CTGTGAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTGAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2419-AGACAGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACAGACTAGTCTCGTGGGCTCGG</t>
+    <t>R2419-TCCAGGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGGTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2420-CATCCACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCACACAGTCTCGTGGGCTCGG</t>
+    <t>R2420-ACAGAACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAACAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2421-CAGCAAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGCAAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2421-AGACTCTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTCTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2422-GCTTGCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R2422-ACTACCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2423-ATGGACTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGACTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2423-AGCACTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCACTTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2424-ACGAAGGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAAGGTGTGTCTCGTGGGCTCGG</t>
+    <t>R2424-GCATCTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2425-AGAGAGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGTACAGTCTCGTGGGCTCGG</t>
+    <t>R2425-CTCACTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACTCGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2426-GTACATCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACATCACGGTCTCGTGGGCTCGG</t>
+    <t>R2426-TCGAGTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2427-ATGGAACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGAACAGTGTCTCGTGGGCTCGG</t>
+    <t>R2427-AGAGACCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2428-AACAACAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACAGGAGTCTCGTGGGCTCGG</t>
+    <t>R2428-TGCAGCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAGCAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2429-CTAGACTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGACTTGCGTCTCGTGGGCTCGG</t>
+    <t>R2429-TGAGCTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2430-ACACAGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAGTACGGTCTCGTGGGCTCGG</t>
+    <t>R2430-TACCTACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTACAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2431-TAGGTCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTCACACGTCTCGTGGGCTCGG</t>
+    <t>R2431-AACGAAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAAGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2432-TCGTGCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGCAACTGTCTCGTGGGCTCGG</t>
+    <t>R2432-TGTCCATGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCATGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2433-GGTCAACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCAACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2433-ACGTGTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTGTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2434-CATCTGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTGCATCGTCTCGTGGGCTCGG</t>
+    <t>R2434-GTAGCACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCACTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2435-AACTGTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGTGGATGTCTCGTGGGCTCGG</t>
+    <t>R2435-TGCTAGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2436-CCTTCTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTCACTGTCTCGTGGGCTCGG</t>
+    <t>R2436-TGAGAGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2437-TGTGACTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGACTCACGTCTCGTGGGCTCGG</t>
+    <t>R2437-CTAGTCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2438-GTCCTAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCCTAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2438-CGTCTAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCTAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2439-CAAGACTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGACTAGGGTCTCGTGGGCTCGG</t>
+    <t>R2439-GACTGTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2440-TTCACGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R2440-CGATCAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2441-ATCAGAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGAGTCCGTCTCGTGGGCTCGG</t>
+    <t>R2441-CACTGTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGTGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2442-TACTCACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCACCTTGTCTCGTGGGCTCGG</t>
+    <t>R2442-TTCAGAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGAAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2443-ACACAGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAGCATCGTCTCGTGGGCTCGG</t>
+    <t>R2443-TCACTCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTCTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2444-AGAGCTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R2444-TCGTTCTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTTCTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2445-ATGAACGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAACGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2445-TAGACTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACTTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2446-GTCTGTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGTACAGGTCTCGTGGGCTCGG</t>
+    <t>R2446-TCTCTGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2447-GCACTGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACTGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R2447-TCAGAACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2448-TGCATCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCATCAGATGTCTCGTGGGCTCGG</t>
+    <t>R2448-TCATCACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCACCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2449-ACGTTCCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTTCCATCGTCTCGTGGGCTCGG</t>
+    <t>R2449-GATCCAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2450-AAGGACAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGACAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2450-AACAGCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGCACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2451-ATCCTGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2451-GGAGTGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGTGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2452-CCTGAGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGAGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R2452-ACAGGTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2453-GATCGAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCGAACCAGTCTCGTGGGCTCGG</t>
+    <t>R2453-TCTTGCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2454-CCATCACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATCACTACGTCTCGTGGGCTCGG</t>
+    <t>R2454-TGCATCGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATCGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2455-TGGACTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACTAGACGTCTCGTGGGCTCGG</t>
+    <t>R2455-AGGTGTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2456-TGCAACAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAACAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2456-AGTACAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2457-GCATGAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGAAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2457-TGTGGATCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGATCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2458-TAGAAGCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGCATGGTCTCGTGGGCTCGG</t>
+    <t>R2458-CAGTCTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2459-AACAACTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2459-GGACTTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACTTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2460-AGTCTTGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTTGAGCGTCTCGTGGGCTCGG</t>
+    <t>R2460-TACCAGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCAGCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2461-AAGCATCGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCGTGGTCTCGTGGGCTCGG</t>
+    <t>R2461-CTTGACAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGACAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2462-TCAACTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACTGGATGTCTCGTGGGCTCGG</t>
+    <t>R2462-TGTGGACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2463-TCACTTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R2463-AGTAGAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2464-AGAGTCCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCCTGAGTCTCGTGGGCTCGG</t>
+    <t>R2464-AACCTGCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTGCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2465-TCTCAACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACCAAGTCTCGTGGGCTCGG</t>
+    <t>R2465-ACTTGTGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGTGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2466-GGTCATCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCATCCTAGTCTCGTGGGCTCGG</t>
+    <t>R2466-GTCAGTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2467-TTCCAGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAGACAGGTCTCGTGGGCTCGG</t>
+    <t>R2467-ACAGACTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGACTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R2468-GGAACCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2468-TAGTCTGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R2469-TTCTTCCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTTCCTGCGTCTCGTGGGCTCGG</t>
+    <t>R2469-TGATCAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R2470-GAAGATCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGATCCAAGTCTCGTGGGCTCGG</t>
+    <t>R2470-GTGACATGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACATGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R2471-GTGTACAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTACAGGAGTCTCGTGGGCTCGG</t>
+    <t>R2471-AACTGTCCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGTCCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R2472-TCGACGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACGTGATGTCTCGTGGGCTCGG</t>
+    <t>R2472-ATCGAGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2473-ACCAGCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2473-CTAGCTTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2474-GTAGAACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAACTGAGTCTCGTGGGCTCGG</t>
+    <t>R2474-ACAAGTTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGTTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2475-GTGGTACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGTACTAGGTCTCGTGGGCTCGG</t>
+    <t>R2475-ACAACGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2476-ACTTCGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCGTACGGTCTCGTGGGCTCGG</t>
+    <t>R2476-ACATCGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2477-TGCTAGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGGATCGTCTCGTGGGCTCGG</t>
+    <t>R2477-CAGCTGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGCTGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2478-TTCAGCACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCACTGGTCTCGTGGGCTCGG</t>
+    <t>R2478-TTGCTCCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2479-CAACAGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R2479-TACAGAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2480-TAGTCCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCTAGCGTCTCGTGGGCTCGG</t>
+    <t>R2480-TCCACTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACTCCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2481-TTGTCCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCCAACAGTCTCGTGGGCTCGG</t>
+    <t>R2481-TGGTTCACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2482-CCTGTACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGTACAACGTCTCGTGGGCTCGG</t>
+    <t>R2482-AAGGTCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2483-GAACGTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2483-GCACTTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACTTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2484-CCATCGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATCGATCAGTCTCGTGGGCTCGG</t>
+    <t>R2484-ACCAGACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2485-ACAACAACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACAACAGGTCTCGTGGGCTCGG</t>
+    <t>R2485-TACGACCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGACCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2486-AAGAGCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2486-AGTAGCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2487-ACCAAGCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAAGCATGGTCTCGTGGGCTCGG</t>
+    <t>R2487-CTGAAGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2488-TACTACTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTACTTGCGTCTCGTGGGCTCGG</t>
+    <t>R2488-CCTAGCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2489-CTTCGTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R2489-GATGAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2490-AAGTGCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGCAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2490-AACCTTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2491-AGCTACATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTACATGGGTCTCGTGGGCTCGG</t>
+    <t>R2491-ACACGTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACGTAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2492-TACCAGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCAGCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2492-CTCTTCGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2493-TCGATGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATGACTGGTCTCGTGGGCTCGG</t>
+    <t>R2493-GGTGTTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2494-AGCTACGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTACGATGGTCTCGTGGGCTCGG</t>
+    <t>R2494-ACTCTCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2495-GCAGAAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGAAGTACGTCTCGTGGGCTCGG</t>
+    <t>R2495-GAACTTGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTTGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2496-TAGGAGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2496-TTCTGTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGTGCTAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
